--- a/backend/uploads/import_nilai/krs.xlsx
+++ b/backend/uploads/import_nilai/krs.xlsx
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>TM-11201-20</t>
+    <t>EE0103-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Agama</t>
+    <t>Matematika Diskret dan Logika</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Abdul Malik S.S., M.Hum</t>
-  </si>
-  <si>
-    <t>OITEmzrdecrvW/1vVNYUuA==</t>
+    <t>Dr.Ir. Augustinus Sujono M.T.</t>
+  </si>
+  <si>
+    <t>caFNPWvAHl//MJRM6J0jcw==</t>
   </si>
   <si>
     <t>No</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/backend/uploads/import_nilai/krs.xlsx
+++ b/backend/uploads/import_nilai/krs.xlsx
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0103-19</t>
+    <t>EE0101-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Matematika Diskret dan Logika</t>
+    <t>Kalkulus I</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -65,7 +65,7 @@
     <t>Dr.Ir. Augustinus Sujono M.T.</t>
   </si>
   <si>
-    <t>caFNPWvAHl//MJRM6J0jcw==</t>
+    <t>9vbZijJ3Q+WxO+coLS2cRw==</t>
   </si>
   <si>
     <t>No</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/backend/uploads/import_nilai/krs.xlsx
+++ b/backend/uploads/import_nilai/krs.xlsx
@@ -56,16 +56,16 @@
     <t>Kelas</t>
   </si>
   <si>
-    <t>A</t>
+    <t>J</t>
   </si>
   <si>
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Dr.Ir. Augustinus Sujono M.T.</t>
-  </si>
-  <si>
-    <t>9vbZijJ3Q+WxO+coLS2cRw==</t>
+    <t>Chico Hermanu Brillianto Apribowo S.T., M.Eng.</t>
+  </si>
+  <si>
+    <t>rlNbhKFMJ5nffVodu5g8gQ==</t>
   </si>
   <si>
     <t>No</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/backend/uploads/import_nilai/krs.xlsx
+++ b/backend/uploads/import_nilai/krs.xlsx
@@ -38,34 +38,34 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Ganjil</t>
+    <t>Genap</t>
   </si>
   <si>
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0101-19</t>
+    <t>EE3604-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Kalkulus I</t>
+    <t>Topik Pilihan Komputer dan Telekomunikasi</t>
   </si>
   <si>
     <t>Kelas</t>
   </si>
   <si>
-    <t>J</t>
+    <t>A</t>
   </si>
   <si>
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Chico Hermanu Brillianto Apribowo S.T., M.Eng.</t>
-  </si>
-  <si>
-    <t>rlNbhKFMJ5nffVodu5g8gQ==</t>
+    <t>Muhammad Hamka Ibrahim St., M.Eng.</t>
+  </si>
+  <si>
+    <t>bcvbahse7y7SDj4g2oGx7g==</t>
   </si>
   <si>
     <t>No</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/backend/uploads/import_nilai/krs.xlsx
+++ b/backend/uploads/import_nilai/krs.xlsx
@@ -38,19 +38,19 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Genap</t>
+    <t>Ganjil</t>
   </si>
   <si>
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE3604-19</t>
+    <t>EE0104-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Topik Pilihan Komputer dan Telekomunikasi</t>
+    <t>Aljabar Linear</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Muhammad Hamka Ibrahim St., M.Eng.</t>
-  </si>
-  <si>
-    <t>bcvbahse7y7SDj4g2oGx7g==</t>
+    <t>Dr.Ir. Augustinus Sujono M.T.</t>
+  </si>
+  <si>
+    <t>I8860a5k8kJ8uomjPNjWlQ==</t>
   </si>
   <si>
     <t>No</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/backend/uploads/import_nilai/krs.xlsx
+++ b/backend/uploads/import_nilai/krs.xlsx
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0104-19</t>
+    <t>EE0105-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Aljabar Linear</t>
+    <t>Kimia</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -65,7 +65,7 @@
     <t>Dr.Ir. Augustinus Sujono M.T.</t>
   </si>
   <si>
-    <t>I8860a5k8kJ8uomjPNjWlQ==</t>
+    <t>BVCGKhxyl98Zyv//lWR++A==</t>
   </si>
   <si>
     <t>No</t>
